--- a/owenDec02.xlsx
+++ b/owenDec02.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfraser\Desktop\DesktopSpring2016\MAI\Project\FinalPresentation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfraser\workspaceMars\Nabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11974"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="notifications" sheetId="1" r:id="rId1"/>
+    <sheet name="calendar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="89">
   <si>
     <t>gmail</t>
   </si>
@@ -544,6 +545,18 @@
   <si>
     <t>Successfully updated "Skype - free IM &amp; video calls"</t>
   </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>next break in your schedule</t>
+  </si>
+  <si>
+    <t>next free period ( &gt; 30 mins)</t>
+  </si>
+  <si>
+    <t>next contextually relevant event - notificaiton will be delivered nearer the time of an event which is linked to the notification</t>
+  </si>
 </sst>
 </file>
 
@@ -552,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,13 +580,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -588,10 +621,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,6 +648,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6737</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="988601"/>
+          <a:ext cx="9572291" cy="7153470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -875,7 +965,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1892,4 +1982,552 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L47"/>
+  <sheetViews>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="107.4609375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="5">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>